--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="20640" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="20640" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FirmValue" sheetId="14" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -59,19 +59,19 @@
     <t>Investments</t>
   </si>
   <si>
-    <t>on Current Date</t>
+    <t>On Current Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -175,12 +175,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,43 +259,52 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -255,18 +335,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -295,7 +365,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -303,33 +372,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -366,7 +413,7 @@
                   <c:v>45221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45228</c:v>
+                  <c:v>45227</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45235</c:v>
@@ -391,27 +438,44 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45284</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023TrendAnalysis'!$C$4:$C$14</c:f>
+              <c:f>'2023TrendAnalysis'!$C$3:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -453,7 +517,7 @@
                   <c:v>45221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45228</c:v>
+                  <c:v>45227</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45235</c:v>
@@ -478,27 +542,44 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45284</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023TrendAnalysis'!$D$4:$D$14</c:f>
+              <c:f>'2023TrendAnalysis'!$D$3:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>58500</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>41200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -540,7 +621,7 @@
                   <c:v>45221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45228</c:v>
+                  <c:v>45227</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45235</c:v>
@@ -565,27 +646,41 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45284</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023TrendAnalysis'!$E$4:$E$14</c:f>
+              <c:f>'2023TrendAnalysis'!$E$3:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -627,7 +722,7 @@
                   <c:v>45221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45228</c:v>
+                  <c:v>45227</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45235</c:v>
@@ -652,54 +747,60 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45284</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2023TrendAnalysis'!$F$4:$F$14</c:f>
+              <c:f>'2023TrendAnalysis'!$F$3:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>49400</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1323498464"/>
-        <c:axId val="1323488896"/>
+        <c:marker val="1"/>
+        <c:axId val="60188928"/>
+        <c:axId val="60190720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1323498464"/>
+        <c:axId val="60188928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -734,18 +835,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323488896"/>
+        <c:crossAx val="60190720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1323488896"/>
+        <c:axId val="60190720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -761,9 +861,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -792,7 +891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323498464"/>
+        <c:crossAx val="60188928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -807,7 +906,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -838,7 +936,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -867,566 +964,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1465,7 +1006,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="2023"/>
@@ -1474,7 +1015,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>40400</v>
+            <v>49400</v>
           </cell>
         </row>
       </sheetData>
@@ -1526,7 +1067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1561,7 +1102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1738,21 +1279,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
@@ -1760,7 +1301,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="22.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1768,17 +1309,17 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="22.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>40400</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="9" customHeight="1"/>
+    <row r="6" spans="2:3" ht="22.5" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1786,51 +1327,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="22.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>40400</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="22.5" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="22.5" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="22.5" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="22.5" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>3900+2300+2900</f>
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="22.5" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>41200</v>
+        <v>58500</v>
       </c>
     </row>
   </sheetData>
@@ -1840,25 +1382,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="11" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="7" width="25.28515625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
         <v>12</v>
@@ -1873,86 +1416,128 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="18">
         <v>35000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="18">
+        <f>FirmValue!C15</f>
+        <v>58500</v>
+      </c>
+      <c r="E3" s="18">
+        <f>FirmValue!C13</f>
+        <v>9100</v>
+      </c>
+      <c r="F3" s="19">
+        <f>FirmValue!C4</f>
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="B4" s="15">
+        <v>45221</v>
+      </c>
+      <c r="C4" s="16">
+        <v>35000</v>
+      </c>
+      <c r="D4" s="16">
         <v>41200</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E4" s="16">
+        <v>800</v>
+      </c>
+      <c r="F4" s="16">
+        <v>40400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="13">
+        <v>45227</v>
+      </c>
+      <c r="C5" s="3">
+        <v>35000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E5" s="3">
         <v>4100</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F5" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
-        <v>45221</v>
-      </c>
-      <c r="C4" s="7">
-        <v>35000</v>
-      </c>
-      <c r="D4" s="7">
-        <v>41200</v>
-      </c>
-      <c r="E4" s="7">
-        <v>800</v>
-      </c>
-      <c r="F4" s="7">
-        <v>40400</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
-        <v>45228</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12">
         <v>45235</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>41200</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4100</v>
+      </c>
+      <c r="F6" s="7">
+        <v>37100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13">
         <v>45242</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>34880</v>
+      </c>
+      <c r="D7" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>46100</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="12">
         <v>45249</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="7">
+        <v>34880</v>
+      </c>
+      <c r="D8" s="7">
+        <v>46100</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="7">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="13">
         <v>45256</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>44880</v>
+      </c>
+      <c r="D9" s="3">
+        <v>59050</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1850</v>
+      </c>
+      <c r="F9" s="3">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="12">
         <v>45263</v>
       </c>
@@ -1961,16 +1546,25 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="13">
         <v>45270</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>44880</v>
+      </c>
+      <c r="D11" s="3">
+        <f>E11+F11</f>
+        <v>58500</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="12">
         <v>45277</v>
       </c>
@@ -1979,7 +1573,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="13">
         <v>45284</v>
       </c>
@@ -1988,10 +1582,8 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>45291</v>
-      </c>
+    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1999,7 +1591,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="20640" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="FirmValue" sheetId="14" r:id="rId1"/>
     <sheet name="2023TrendAnalysis" sheetId="15" r:id="rId2"/>
+    <sheet name="Projection" sheetId="16" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
   <si>
     <t>LoanOfficer-A</t>
   </si>
@@ -60,18 +62,259 @@
   </si>
   <si>
     <t>On Current Date</t>
+  </si>
+  <si>
+    <t>Pharmacy1</t>
+  </si>
+  <si>
+    <t>L50000W48P1750</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Shop1</t>
+  </si>
+  <si>
+    <t>L20000W17P1400</t>
+  </si>
+  <si>
+    <t>Borrower1</t>
+  </si>
+  <si>
+    <t>L10000W48P350</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Monthly Interest</t>
+  </si>
+  <si>
+    <t>Month1</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Monthly Investment</t>
+  </si>
+  <si>
+    <t>Month2</t>
+  </si>
+  <si>
+    <t>Month3</t>
+  </si>
+  <si>
+    <t>Month4</t>
+  </si>
+  <si>
+    <t>Month5</t>
+  </si>
+  <si>
+    <t>Month6</t>
+  </si>
+  <si>
+    <t>Month7</t>
+  </si>
+  <si>
+    <t>Month8</t>
+  </si>
+  <si>
+    <t>Month9</t>
+  </si>
+  <si>
+    <t>Month10</t>
+  </si>
+  <si>
+    <t>Month11</t>
+  </si>
+  <si>
+    <t>Month12</t>
+  </si>
+  <si>
+    <t>Month13</t>
+  </si>
+  <si>
+    <t>Month14</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Total Wk</t>
+  </si>
+  <si>
+    <t>Remain. Wk</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>EWI</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Realized Gain</t>
+  </si>
+  <si>
+    <t>Baruni</t>
+  </si>
+  <si>
+    <t>D5000P60</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>D10000P120</t>
+  </si>
+  <si>
+    <t>Priyadarshini</t>
+  </si>
+  <si>
+    <t>Bijenti</t>
+  </si>
+  <si>
+    <t>W10000P17</t>
+  </si>
+  <si>
+    <t>Salam sunanda</t>
+  </si>
+  <si>
+    <t>Khoirom priyadarsini</t>
+  </si>
+  <si>
+    <t>W15000P17</t>
+  </si>
+  <si>
+    <t>realized Gain</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Week8</t>
+  </si>
+  <si>
+    <t>Week9</t>
+  </si>
+  <si>
+    <t>Week10</t>
+  </si>
+  <si>
+    <t>Week11</t>
+  </si>
+  <si>
+    <t>Week12</t>
+  </si>
+  <si>
+    <t>Week13</t>
+  </si>
+  <si>
+    <t>Week14</t>
+  </si>
+  <si>
+    <t>week15</t>
+  </si>
+  <si>
+    <t>week16</t>
+  </si>
+  <si>
+    <t>week17</t>
+  </si>
+  <si>
+    <t>week18</t>
+  </si>
+  <si>
+    <t>week19</t>
+  </si>
+  <si>
+    <t>week20</t>
+  </si>
+  <si>
+    <t>week21</t>
+  </si>
+  <si>
+    <t>week22</t>
+  </si>
+  <si>
+    <t>week23</t>
+  </si>
+  <si>
+    <t>week24</t>
+  </si>
+  <si>
+    <t>week25</t>
+  </si>
+  <si>
+    <t>week26</t>
+  </si>
+  <si>
+    <t>week27</t>
+  </si>
+  <si>
+    <t>week28</t>
+  </si>
+  <si>
+    <t>week29</t>
+  </si>
+  <si>
+    <t>week30</t>
+  </si>
+  <si>
+    <t>week31</t>
+  </si>
+  <si>
+    <t>week32</t>
+  </si>
+  <si>
+    <t>week33</t>
+  </si>
+  <si>
+    <t>week34</t>
+  </si>
+  <si>
+    <t>week35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,11 +490,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,57 +503,94 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,8 +616,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -365,6 +656,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -373,10 +665,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -446,7 +740,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$C$3:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>35000</c:v>
@@ -472,10 +766,14 @@
                 <c:pt idx="8">
                   <c:v>44880</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>134880</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -550,10 +848,10 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$D$3:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>58500</c:v>
+                  <c:v>190050</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>41200</c:v>
@@ -575,11 +873,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>58500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -654,10 +956,10 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$E$3:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9100</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>800</c:v>
@@ -676,11 +978,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -755,10 +1061,10 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$F$3:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>49400</c:v>
+                  <c:v>177050</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40400</c:v>
@@ -780,27 +1086,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>49400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="60188928"/>
-        <c:axId val="60190720"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="59474304"/>
+        <c:axId val="59475840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="60188928"/>
+        <c:axId val="59474304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -835,17 +1156,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60190720"/>
+        <c:crossAx val="59475840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="60190720"/>
+        <c:axId val="59475840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -861,8 +1183,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -891,7 +1214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60188928"/>
+        <c:crossAx val="59474304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -906,6 +1229,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -936,6 +1260,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -964,7 +1289,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1006,7 +1331,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="2023"/>
@@ -1015,7 +1340,28 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>49400</v>
+            <v>177050</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="loanForm"/>
+      <sheetName val="MD10000.1-OCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>10000</v>
           </cell>
         </row>
       </sheetData>
@@ -1279,21 +1625,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
@@ -1301,7 +1647,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="22.5" customHeight="1">
+    <row r="2" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1309,17 +1655,17 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="22.5" customHeight="1">
+    <row r="4" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="9" customHeight="1"/>
-    <row r="6" spans="2:3" ht="22.5" customHeight="1">
+        <v>177050</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1327,52 +1673,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="22.5" customHeight="1">
+    <row r="7" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="22.5" customHeight="1">
+        <v>177050</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="2:3" ht="22.5" customHeight="1">
+    <row r="9" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:3" ht="22.5" customHeight="1">
+    <row r="10" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="2:3" ht="22.5" customHeight="1">
+    <row r="13" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <f>3900+2300+2900</f>
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="22.5" customHeight="1">
+        <f>3600+6000+3400</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>58500</v>
+        <v>190050</v>
       </c>
     </row>
   </sheetData>
@@ -1382,26 +1728,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="11" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
+    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
         <v>12</v>
@@ -1416,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="2:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
@@ -1425,18 +1772,18 @@
       </c>
       <c r="D3" s="18">
         <f>FirmValue!C15</f>
-        <v>58500</v>
+        <v>190050</v>
       </c>
       <c r="E3" s="18">
         <f>FirmValue!C13</f>
-        <v>9100</v>
+        <v>13000</v>
       </c>
       <c r="F3" s="19">
         <f>FirmValue!C4</f>
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" thickTop="1">
+        <v>177050</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
         <v>45221</v>
       </c>
@@ -1453,7 +1800,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>45227</v>
       </c>
@@ -1470,7 +1817,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>45235</v>
       </c>
@@ -1487,7 +1834,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>45242</v>
       </c>
@@ -1505,7 +1852,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>45249</v>
       </c>
@@ -1520,7 +1867,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>45256</v>
       </c>
@@ -1537,7 +1884,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>45263</v>
       </c>
@@ -1546,7 +1893,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>45270</v>
       </c>
@@ -1564,16 +1911,24 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>45277</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="C12" s="7">
+        <v>134880</v>
+      </c>
+      <c r="D12" s="7">
+        <v>190050</v>
+      </c>
+      <c r="E12" s="7">
+        <v>13000</v>
+      </c>
+      <c r="F12" s="7">
+        <v>177050</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>45284</v>
       </c>
@@ -1582,7 +1937,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1594,4 +1949,3702 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M155"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="22">
+        <v>50000</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20">
+        <v>48</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21">
+        <f t="shared" ref="K1:K6" si="0">G1*1750</f>
+        <v>84000</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="22">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20">
+        <v>48</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="22">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="20">
+        <v>48</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="22">
+        <v>50000</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20">
+        <v>48</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="22">
+        <v>50000</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="20">
+        <v>48</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="22">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="20">
+        <v>48</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24">
+        <v>17</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25">
+        <f t="shared" ref="K7:K14" si="1">G7*1400</f>
+        <v>23800</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24">
+        <v>17</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25">
+        <f t="shared" si="1"/>
+        <v>23800</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24">
+        <v>17</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25">
+        <f t="shared" si="1"/>
+        <v>23800</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24">
+        <v>17</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25">
+        <f t="shared" si="1"/>
+        <v>23800</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24">
+        <v>17</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25">
+        <f t="shared" si="1"/>
+        <v>23800</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24">
+        <v>17</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25">
+        <f t="shared" si="1"/>
+        <v>23800</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24">
+        <v>17</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25">
+        <f t="shared" si="1"/>
+        <v>23800</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="24">
+        <v>17</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25">
+        <f t="shared" si="1"/>
+        <v>23800</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20">
+        <v>48</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21">
+        <f>G15*350</f>
+        <v>16800</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20">
+        <v>48</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21">
+        <f>G16*350</f>
+        <v>16800</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20">
+        <v>48</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21">
+        <f>G17*350</f>
+        <v>16800</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20">
+        <v>48</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21">
+        <f>G18*350</f>
+        <v>16800</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20">
+        <v>48</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21">
+        <f>G19*350</f>
+        <v>16800</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="22">
+        <f>SUM(D1:D19)</f>
+        <v>510000</v>
+      </c>
+      <c r="K21" s="1">
+        <f>SUM(K1:K19)</f>
+        <v>778400</v>
+      </c>
+      <c r="M21" s="1">
+        <f>SUM(M1:M19)</f>
+        <v>23450</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>172000</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D37" si="2">C24*$G$25</f>
+        <v>8600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" ref="C25:C37" si="3">C24+D24+$H$25</f>
+        <v>190600</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="2"/>
+        <v>9530</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="3"/>
+        <v>210130</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="2"/>
+        <v>10506.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="3"/>
+        <v>230636.5</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="2"/>
+        <v>11531.825000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="3"/>
+        <v>252168.32500000001</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="2"/>
+        <v>12608.416250000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="3"/>
+        <v>274776.74125000002</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="2"/>
+        <v>13738.837062500003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="3"/>
+        <v>298515.57831250003</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="2"/>
+        <v>14925.778915625002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="3"/>
+        <v>323441.35722812504</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="2"/>
+        <v>16172.067861406253</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="3"/>
+        <v>349613.42508953129</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="2"/>
+        <v>17480.671254476565</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="3"/>
+        <v>377094.09634400788</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="2"/>
+        <v>18854.704817200396</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="3"/>
+        <v>405948.80116120825</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="2"/>
+        <v>20297.440058060412</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" si="3"/>
+        <v>436246.24121926865</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="2"/>
+        <v>21812.312060963435</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="3"/>
+        <v>468058.55328023207</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="2"/>
+        <v>23402.927664011604</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="3"/>
+        <v>501461.48094424367</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="2"/>
+        <v>25073.074047212183</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <f>SUM(D24:D37)</f>
+        <v>224534.55499145587</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1">
+        <v>34</v>
+      </c>
+      <c r="M43" s="30"/>
+    </row>
+    <row r="44" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="22">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="26">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="20">
+        <v>9</v>
+      </c>
+      <c r="F47" s="20">
+        <f t="shared" ref="F47:F49" si="4">E47-G47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="20">
+        <f>IF($H$43-0 &lt;= E47, $H$43-0, E47)</f>
+        <v>9</v>
+      </c>
+      <c r="H47" s="20">
+        <v>700</v>
+      </c>
+      <c r="I47" s="22">
+        <f t="shared" ref="I47:I52" si="5">F47*H47</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="22">
+        <f t="shared" ref="J47:J52" si="6">G47*H47</f>
+        <v>6300</v>
+      </c>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="26">
+        <f>'[2]MD10000.1-OCT'!$C$1</f>
+        <v>10000</v>
+      </c>
+      <c r="E48" s="24">
+        <v>9</v>
+      </c>
+      <c r="F48" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="24">
+        <f>IF($H$43-0 &lt;= E48, $H$43-0, E48)</f>
+        <v>9</v>
+      </c>
+      <c r="H48" s="24">
+        <v>700</v>
+      </c>
+      <c r="I48" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="27">
+        <f t="shared" si="6"/>
+        <v>6300</v>
+      </c>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="22">
+        <v>5000</v>
+      </c>
+      <c r="E49" s="20">
+        <v>5</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="20">
+        <f>IF($H$43-0 &lt;= E49, $H$43-0, E49)</f>
+        <v>5</v>
+      </c>
+      <c r="H49" s="20">
+        <v>700</v>
+      </c>
+      <c r="I49" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="23">
+        <f t="shared" si="6"/>
+        <v>3500</v>
+      </c>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E50" s="24">
+        <v>10</v>
+      </c>
+      <c r="F50" s="24">
+        <f>E50-G50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="24">
+        <f>IF($H$43-0 &lt;= E50, $H$43-0, E50)</f>
+        <v>10</v>
+      </c>
+      <c r="H50" s="24">
+        <v>700</v>
+      </c>
+      <c r="I50" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="27">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E51" s="20">
+        <v>13</v>
+      </c>
+      <c r="F51" s="20">
+        <f>E51-G51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="20">
+        <f t="shared" ref="G51:G52" si="7">IF($H$43-0 &lt;= E51, $H$43-0, E51)</f>
+        <v>13</v>
+      </c>
+      <c r="H51" s="20">
+        <v>700</v>
+      </c>
+      <c r="I51" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="23">
+        <f t="shared" si="6"/>
+        <v>9100</v>
+      </c>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="26">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="24">
+        <v>16</v>
+      </c>
+      <c r="F52" s="24">
+        <f>E52-G52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="24">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="H52" s="24">
+        <v>1050</v>
+      </c>
+      <c r="I52" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="27">
+        <f t="shared" si="6"/>
+        <v>16800</v>
+      </c>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="22">
+        <v>50000</v>
+      </c>
+      <c r="E54" s="20">
+        <v>48</v>
+      </c>
+      <c r="F54" s="20">
+        <f t="shared" ref="F54:F59" si="8">E54-G54</f>
+        <v>14</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" ref="G54:G59" si="9">IF($H$43-0 &lt;= E54, $H$43-0, E54)</f>
+        <v>34</v>
+      </c>
+      <c r="H54" s="20">
+        <v>1750</v>
+      </c>
+      <c r="I54" s="22">
+        <f t="shared" ref="I54:I59" si="10">F54*H54</f>
+        <v>24500</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="shared" ref="J54:J59" si="11">G54*H54</f>
+        <v>59500</v>
+      </c>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E55" s="24">
+        <v>17</v>
+      </c>
+      <c r="F55" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="24">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="H55" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I55" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="27">
+        <f t="shared" si="11"/>
+        <v>23800</v>
+      </c>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="22">
+        <v>20000</v>
+      </c>
+      <c r="E56" s="20">
+        <v>17</v>
+      </c>
+      <c r="F56" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="20">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="H56" s="20">
+        <v>1400</v>
+      </c>
+      <c r="I56" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="23">
+        <f t="shared" si="11"/>
+        <v>23800</v>
+      </c>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="24">
+        <v>48</v>
+      </c>
+      <c r="F57" s="24">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G57" s="24">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="H57" s="24">
+        <v>350</v>
+      </c>
+      <c r="I57" s="27">
+        <f t="shared" si="10"/>
+        <v>4900</v>
+      </c>
+      <c r="J57" s="27">
+        <f t="shared" si="11"/>
+        <v>11900</v>
+      </c>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="20">
+        <v>48</v>
+      </c>
+      <c r="F58" s="20">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G58" s="20">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="H58" s="20">
+        <v>350</v>
+      </c>
+      <c r="I58" s="23">
+        <f t="shared" si="10"/>
+        <v>4900</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" si="11"/>
+        <v>11900</v>
+      </c>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E59" s="24">
+        <v>48</v>
+      </c>
+      <c r="F59" s="24">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G59" s="24">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="H59" s="24">
+        <v>350</v>
+      </c>
+      <c r="I59" s="27">
+        <f t="shared" si="10"/>
+        <v>4900</v>
+      </c>
+      <c r="J59" s="27">
+        <f t="shared" si="11"/>
+        <v>11900</v>
+      </c>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+    </row>
+    <row r="61" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="24">
+        <v>48</v>
+      </c>
+      <c r="F61" s="24">
+        <f>E61-G61</f>
+        <v>15</v>
+      </c>
+      <c r="G61" s="24">
+        <f t="shared" ref="G61:G64" si="12">IF($H$43-K61 &lt;= E61, $H$43-K61, E61)</f>
+        <v>33</v>
+      </c>
+      <c r="H61" s="24">
+        <v>350</v>
+      </c>
+      <c r="I61" s="27">
+        <f>F61*H61</f>
+        <v>5250</v>
+      </c>
+      <c r="J61" s="27">
+        <f>G61*H61</f>
+        <v>11550</v>
+      </c>
+      <c r="K61" s="24">
+        <v>1</v>
+      </c>
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="24">
+        <v>48</v>
+      </c>
+      <c r="F62" s="24">
+        <f>E62-G62</f>
+        <v>16</v>
+      </c>
+      <c r="G62" s="24">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="H62" s="24">
+        <v>350</v>
+      </c>
+      <c r="I62" s="27">
+        <f>F62*H62</f>
+        <v>5600</v>
+      </c>
+      <c r="J62" s="27">
+        <f>G62*H62</f>
+        <v>11200</v>
+      </c>
+      <c r="K62" s="24">
+        <v>2</v>
+      </c>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E63" s="24">
+        <v>48</v>
+      </c>
+      <c r="F63" s="24">
+        <f>E63-G63</f>
+        <v>17</v>
+      </c>
+      <c r="G63" s="24">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="H63" s="24">
+        <v>350</v>
+      </c>
+      <c r="I63" s="27">
+        <f>F63*H63</f>
+        <v>5950</v>
+      </c>
+      <c r="J63" s="27">
+        <f>G63*H63</f>
+        <v>10850</v>
+      </c>
+      <c r="K63" s="24">
+        <v>3</v>
+      </c>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E64" s="24">
+        <v>48</v>
+      </c>
+      <c r="F64" s="24">
+        <f>E64-G64</f>
+        <v>18</v>
+      </c>
+      <c r="G64" s="24">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="H64" s="24">
+        <v>350</v>
+      </c>
+      <c r="I64" s="27">
+        <f>F64*H64</f>
+        <v>6300</v>
+      </c>
+      <c r="J64" s="27">
+        <f>G64*H64</f>
+        <v>10500</v>
+      </c>
+      <c r="K64" s="24">
+        <v>4</v>
+      </c>
+      <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E66" s="24">
+        <v>48</v>
+      </c>
+      <c r="F66" s="24">
+        <f>E66-G66</f>
+        <v>19</v>
+      </c>
+      <c r="G66" s="24">
+        <f t="shared" ref="G66:G69" si="13">IF($H$43-K66 &lt;= E66, $H$43-K66, E66)</f>
+        <v>29</v>
+      </c>
+      <c r="H66" s="24">
+        <v>350</v>
+      </c>
+      <c r="I66" s="27">
+        <f>F66*H66</f>
+        <v>6650</v>
+      </c>
+      <c r="J66" s="27">
+        <f>G66*H66</f>
+        <v>10150</v>
+      </c>
+      <c r="K66" s="24">
+        <v>5</v>
+      </c>
+      <c r="L66" s="23"/>
+    </row>
+    <row r="67" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E67" s="24">
+        <v>48</v>
+      </c>
+      <c r="F67" s="24">
+        <f>E67-G67</f>
+        <v>20</v>
+      </c>
+      <c r="G67" s="24">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="H67" s="24">
+        <v>350</v>
+      </c>
+      <c r="I67" s="27">
+        <f>F67*H67</f>
+        <v>7000</v>
+      </c>
+      <c r="J67" s="27">
+        <f>G67*H67</f>
+        <v>9800</v>
+      </c>
+      <c r="K67" s="24">
+        <v>6</v>
+      </c>
+      <c r="L67" s="23"/>
+    </row>
+    <row r="68" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E68" s="24">
+        <v>48</v>
+      </c>
+      <c r="F68" s="24">
+        <f>E68-G68</f>
+        <v>21</v>
+      </c>
+      <c r="G68" s="24">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="H68" s="24">
+        <v>350</v>
+      </c>
+      <c r="I68" s="27">
+        <f>F68*H68</f>
+        <v>7350</v>
+      </c>
+      <c r="J68" s="27">
+        <f>G68*H68</f>
+        <v>9450</v>
+      </c>
+      <c r="K68" s="24">
+        <v>7</v>
+      </c>
+      <c r="L68" s="23"/>
+    </row>
+    <row r="69" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E69" s="24">
+        <v>17</v>
+      </c>
+      <c r="F69" s="24">
+        <f>E69-G69</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="24">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="H69" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I69" s="27">
+        <f>F69*H69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="27">
+        <f>G69*H69</f>
+        <v>23800</v>
+      </c>
+      <c r="K69" s="24">
+        <v>8</v>
+      </c>
+      <c r="L69" s="23">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+    </row>
+    <row r="71" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E71" s="24">
+        <v>48</v>
+      </c>
+      <c r="F71" s="24">
+        <f>E71-G71</f>
+        <v>23</v>
+      </c>
+      <c r="G71" s="24">
+        <f t="shared" ref="G71:G74" si="14">IF($H$43-K71 &lt;= E71, $H$43-K71, E71)</f>
+        <v>25</v>
+      </c>
+      <c r="H71" s="24">
+        <v>350</v>
+      </c>
+      <c r="I71" s="27">
+        <f>F71*H71</f>
+        <v>8050</v>
+      </c>
+      <c r="J71" s="27">
+        <f>G71*H71</f>
+        <v>8750</v>
+      </c>
+      <c r="K71" s="24">
+        <v>9</v>
+      </c>
+      <c r="L71" s="23"/>
+    </row>
+    <row r="72" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E72" s="24">
+        <v>48</v>
+      </c>
+      <c r="F72" s="24">
+        <f t="shared" ref="F72:F74" si="15">E72-G72</f>
+        <v>24</v>
+      </c>
+      <c r="G72" s="24">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="H72" s="24">
+        <v>350</v>
+      </c>
+      <c r="I72" s="27">
+        <f>F72*H72</f>
+        <v>8400</v>
+      </c>
+      <c r="J72" s="27">
+        <f>G72*H72</f>
+        <v>8400</v>
+      </c>
+      <c r="K72" s="24">
+        <v>10</v>
+      </c>
+      <c r="L72" s="23"/>
+    </row>
+    <row r="73" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E73" s="24">
+        <v>17</v>
+      </c>
+      <c r="F73" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="24">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="H73" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I73" s="27">
+        <f>F73*H73</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="27">
+        <f>G73*H73</f>
+        <v>23800</v>
+      </c>
+      <c r="K73" s="24">
+        <v>11</v>
+      </c>
+      <c r="L73" s="23">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E74" s="24">
+        <v>17</v>
+      </c>
+      <c r="F74" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="24">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="H74" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I74" s="27">
+        <f>F74*H74</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="27">
+        <f>G74*H74</f>
+        <v>23800</v>
+      </c>
+      <c r="K74" s="24">
+        <v>12</v>
+      </c>
+      <c r="L74" s="23">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+    </row>
+    <row r="76" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E76" s="24">
+        <v>48</v>
+      </c>
+      <c r="F76" s="24">
+        <f>E76-G76</f>
+        <v>27</v>
+      </c>
+      <c r="G76" s="24">
+        <f t="shared" ref="G76:G79" si="16">IF($H$43-K76 &lt;= E76, $H$43-K76, E76)</f>
+        <v>21</v>
+      </c>
+      <c r="H76" s="24">
+        <v>350</v>
+      </c>
+      <c r="I76" s="27">
+        <f>F76*H76</f>
+        <v>9450</v>
+      </c>
+      <c r="J76" s="27">
+        <f>G76*H76</f>
+        <v>7350</v>
+      </c>
+      <c r="K76" s="24">
+        <v>13</v>
+      </c>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E77" s="24">
+        <v>17</v>
+      </c>
+      <c r="F77" s="24">
+        <f>E77-G77</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="24">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="H77" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I77" s="27">
+        <f>F77*H77</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="27">
+        <f>G77*H77</f>
+        <v>23800</v>
+      </c>
+      <c r="K77" s="24">
+        <v>14</v>
+      </c>
+      <c r="L77" s="23">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E78" s="24">
+        <v>17</v>
+      </c>
+      <c r="F78" s="24">
+        <f>E78-G78</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="24">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="H78" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I78" s="27">
+        <f>F78*H78</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="27">
+        <f>G78*H78</f>
+        <v>23800</v>
+      </c>
+      <c r="K78" s="24">
+        <v>15</v>
+      </c>
+      <c r="L78" s="23">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E79" s="24">
+        <v>17</v>
+      </c>
+      <c r="F79" s="24">
+        <f>E79-G79</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="24">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="H79" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I79" s="27">
+        <f>F79*H79</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="27">
+        <f>G79*H79</f>
+        <v>23800</v>
+      </c>
+      <c r="K79" s="24">
+        <v>16</v>
+      </c>
+      <c r="L79" s="23">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+    </row>
+    <row r="81" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E81" s="24">
+        <v>17</v>
+      </c>
+      <c r="F81" s="24">
+        <f>E81-G81</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="24">
+        <f>IF($H$43-K81 &lt;= E81, $H$43-K81, E81)</f>
+        <v>17</v>
+      </c>
+      <c r="H81" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I81" s="27">
+        <f>F81*H81</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="27">
+        <f>G81*H81</f>
+        <v>23800</v>
+      </c>
+      <c r="K81" s="24">
+        <v>17</v>
+      </c>
+      <c r="L81" s="23">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E82" s="24">
+        <v>17</v>
+      </c>
+      <c r="F82" s="24">
+        <f>E82-G82</f>
+        <v>1</v>
+      </c>
+      <c r="G82" s="24">
+        <f>IF($H$43-K82 &lt;= E82, $H$43-K82, E82)</f>
+        <v>16</v>
+      </c>
+      <c r="H82" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I82" s="27">
+        <f>F82*H82</f>
+        <v>1400</v>
+      </c>
+      <c r="J82" s="27">
+        <f>G82*H82</f>
+        <v>22400</v>
+      </c>
+      <c r="K82" s="24">
+        <v>18</v>
+      </c>
+      <c r="L82" s="23"/>
+    </row>
+    <row r="83" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E83" s="24">
+        <v>17</v>
+      </c>
+      <c r="F83" s="24">
+        <f>E83-G83</f>
+        <v>2</v>
+      </c>
+      <c r="G83" s="24">
+        <f>IF($H$43-K83 &lt;= E83, $H$43-K83, E83)</f>
+        <v>15</v>
+      </c>
+      <c r="H83" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I83" s="27">
+        <f>F83*H83</f>
+        <v>2800</v>
+      </c>
+      <c r="J83" s="27">
+        <f>G83*H83</f>
+        <v>21000</v>
+      </c>
+      <c r="K83" s="24">
+        <v>19</v>
+      </c>
+      <c r="L83" s="23"/>
+    </row>
+    <row r="84" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E84" s="24">
+        <v>17</v>
+      </c>
+      <c r="F84" s="24">
+        <f t="shared" ref="F84:F95" si="17">E84-G84</f>
+        <v>3</v>
+      </c>
+      <c r="G84" s="24">
+        <f t="shared" ref="G84:G85" si="18">IF($H$43-K84 &lt;= E84, $H$43-K84, E84)</f>
+        <v>14</v>
+      </c>
+      <c r="H84" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I84" s="27">
+        <f t="shared" ref="I84:I85" si="19">F84*H84</f>
+        <v>4200</v>
+      </c>
+      <c r="J84" s="27">
+        <f t="shared" ref="J84:J85" si="20">G84*H84</f>
+        <v>19600</v>
+      </c>
+      <c r="K84" s="24">
+        <v>20</v>
+      </c>
+      <c r="L84" s="23"/>
+    </row>
+    <row r="85" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E85" s="24">
+        <v>17</v>
+      </c>
+      <c r="F85" s="24">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="G85" s="24">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="H85" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I85" s="27">
+        <f t="shared" si="19"/>
+        <v>4200</v>
+      </c>
+      <c r="J85" s="27">
+        <f t="shared" si="20"/>
+        <v>19600</v>
+      </c>
+      <c r="K85" s="24">
+        <v>20</v>
+      </c>
+      <c r="L85" s="23"/>
+    </row>
+    <row r="86" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+    </row>
+    <row r="87" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E87" s="24">
+        <v>17</v>
+      </c>
+      <c r="F87" s="24">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="G87" s="24">
+        <f t="shared" ref="G87:G90" si="21">IF($H$43-K87 &lt;= E87, $H$43-K87, E87)</f>
+        <v>13</v>
+      </c>
+      <c r="H87" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I87" s="27">
+        <f t="shared" ref="I87:I88" si="22">F87*H87</f>
+        <v>5600</v>
+      </c>
+      <c r="J87" s="27">
+        <f t="shared" ref="J87:J88" si="23">G87*H87</f>
+        <v>18200</v>
+      </c>
+      <c r="K87" s="24">
+        <v>21</v>
+      </c>
+      <c r="L87" s="23"/>
+    </row>
+    <row r="88" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E88" s="24">
+        <v>17</v>
+      </c>
+      <c r="F88" s="24">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="G88" s="24">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="H88" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I88" s="27">
+        <f t="shared" si="22"/>
+        <v>7000</v>
+      </c>
+      <c r="J88" s="27">
+        <f t="shared" si="23"/>
+        <v>16800</v>
+      </c>
+      <c r="K88" s="24">
+        <v>22</v>
+      </c>
+      <c r="L88" s="23"/>
+    </row>
+    <row r="89" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E89" s="24">
+        <v>48</v>
+      </c>
+      <c r="F89" s="24">
+        <f>E89-G89</f>
+        <v>37</v>
+      </c>
+      <c r="G89" s="24">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="H89" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I89" s="27">
+        <f>F89*H89</f>
+        <v>64750</v>
+      </c>
+      <c r="J89" s="27">
+        <f>G89*H89</f>
+        <v>19250</v>
+      </c>
+      <c r="K89" s="24">
+        <v>23</v>
+      </c>
+      <c r="L89" s="23"/>
+    </row>
+    <row r="90" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E90" s="24">
+        <v>17</v>
+      </c>
+      <c r="F90" s="24">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="G90" s="24">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="H90" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I90" s="27">
+        <f t="shared" ref="I90" si="24">F90*H90</f>
+        <v>9800</v>
+      </c>
+      <c r="J90" s="27">
+        <f t="shared" ref="J90" si="25">G90*H90</f>
+        <v>14000</v>
+      </c>
+      <c r="K90" s="24">
+        <v>24</v>
+      </c>
+      <c r="L90" s="23"/>
+    </row>
+    <row r="91" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+    </row>
+    <row r="92" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E92" s="24">
+        <v>48</v>
+      </c>
+      <c r="F92" s="24">
+        <f>E92-G92</f>
+        <v>39</v>
+      </c>
+      <c r="G92" s="24">
+        <f t="shared" ref="G92:G95" si="26">IF($H$43-K92 &lt;= E92, $H$43-K92, E92)</f>
+        <v>9</v>
+      </c>
+      <c r="H92" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I92" s="27">
+        <f>F92*H92</f>
+        <v>68250</v>
+      </c>
+      <c r="J92" s="27">
+        <f>G92*H92</f>
+        <v>15750</v>
+      </c>
+      <c r="K92" s="24">
+        <v>25</v>
+      </c>
+      <c r="L92" s="23"/>
+    </row>
+    <row r="93" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E93" s="24">
+        <v>17</v>
+      </c>
+      <c r="F93" s="24">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G93" s="24">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="H93" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I93" s="27">
+        <f t="shared" ref="I93" si="27">F93*H93</f>
+        <v>12600</v>
+      </c>
+      <c r="J93" s="27">
+        <f t="shared" ref="J93" si="28">G93*H93</f>
+        <v>11200</v>
+      </c>
+      <c r="K93" s="24">
+        <v>26</v>
+      </c>
+      <c r="L93" s="23"/>
+    </row>
+    <row r="94" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E94" s="24">
+        <v>48</v>
+      </c>
+      <c r="F94" s="24">
+        <f>E94-G94</f>
+        <v>41</v>
+      </c>
+      <c r="G94" s="24">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="H94" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I94" s="27">
+        <f>F94*H94</f>
+        <v>71750</v>
+      </c>
+      <c r="J94" s="27">
+        <f>G94*H94</f>
+        <v>12250</v>
+      </c>
+      <c r="K94" s="24">
+        <v>27</v>
+      </c>
+      <c r="L94" s="23"/>
+    </row>
+    <row r="95" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E95" s="24">
+        <v>17</v>
+      </c>
+      <c r="F95" s="24">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="G95" s="24">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="H95" s="24">
+        <v>1400</v>
+      </c>
+      <c r="I95" s="27">
+        <f t="shared" ref="I95" si="29">F95*H95</f>
+        <v>15400</v>
+      </c>
+      <c r="J95" s="27">
+        <f t="shared" ref="J95" si="30">G95*H95</f>
+        <v>8400</v>
+      </c>
+      <c r="K95" s="24">
+        <v>28</v>
+      </c>
+      <c r="L95" s="23"/>
+    </row>
+    <row r="96" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+    </row>
+    <row r="97" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E97" s="24">
+        <v>48</v>
+      </c>
+      <c r="F97" s="24">
+        <f>E97-G97</f>
+        <v>43</v>
+      </c>
+      <c r="G97" s="24">
+        <f t="shared" ref="G97:G100" si="31">IF($H$43-K97 &lt;= E97, $H$43-K97, E97)</f>
+        <v>5</v>
+      </c>
+      <c r="H97" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I97" s="27">
+        <f>F97*H97</f>
+        <v>75250</v>
+      </c>
+      <c r="J97" s="27">
+        <f>G97*H97</f>
+        <v>8750</v>
+      </c>
+      <c r="K97" s="24">
+        <v>29</v>
+      </c>
+      <c r="L97" s="23"/>
+    </row>
+    <row r="98" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E98" s="24">
+        <v>48</v>
+      </c>
+      <c r="F98" s="24">
+        <f>E98-G98</f>
+        <v>44</v>
+      </c>
+      <c r="G98" s="24">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="H98" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I98" s="27">
+        <f>F98*H98</f>
+        <v>77000</v>
+      </c>
+      <c r="J98" s="27">
+        <f>G98*H98</f>
+        <v>7000</v>
+      </c>
+      <c r="K98" s="24">
+        <v>30</v>
+      </c>
+      <c r="L98" s="23"/>
+    </row>
+    <row r="99" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E99" s="24">
+        <v>48</v>
+      </c>
+      <c r="F99" s="24">
+        <f>E99-G99</f>
+        <v>45</v>
+      </c>
+      <c r="G99" s="24">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="H99" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I99" s="27">
+        <f>F99*H99</f>
+        <v>78750</v>
+      </c>
+      <c r="J99" s="27">
+        <f>G99*H99</f>
+        <v>5250</v>
+      </c>
+      <c r="K99" s="24">
+        <v>31</v>
+      </c>
+      <c r="L99" s="23"/>
+    </row>
+    <row r="100" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E100" s="24">
+        <v>48</v>
+      </c>
+      <c r="F100" s="24">
+        <f>E100-G100</f>
+        <v>46</v>
+      </c>
+      <c r="G100" s="24">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="H100" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I100" s="27">
+        <f>F100*H100</f>
+        <v>80500</v>
+      </c>
+      <c r="J100" s="27">
+        <f>G100*H100</f>
+        <v>3500</v>
+      </c>
+      <c r="K100" s="24">
+        <v>32</v>
+      </c>
+      <c r="L100" s="23"/>
+    </row>
+    <row r="101" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="20"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+    </row>
+    <row r="102" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E102" s="24">
+        <v>48</v>
+      </c>
+      <c r="F102" s="24">
+        <f>E102-G102</f>
+        <v>47</v>
+      </c>
+      <c r="G102" s="24">
+        <f t="shared" ref="G102:G103" si="32">IF($H$43-K102 &lt;= E102, $H$43-K102, E102)</f>
+        <v>1</v>
+      </c>
+      <c r="H102" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I102" s="27">
+        <f>F102*H102</f>
+        <v>82250</v>
+      </c>
+      <c r="J102" s="27">
+        <f>G102*H102</f>
+        <v>1750</v>
+      </c>
+      <c r="K102" s="24">
+        <v>33</v>
+      </c>
+      <c r="L102" s="23"/>
+    </row>
+    <row r="103" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="26">
+        <v>50000</v>
+      </c>
+      <c r="E103" s="24">
+        <v>48</v>
+      </c>
+      <c r="F103" s="24">
+        <f>E103-G103</f>
+        <v>48</v>
+      </c>
+      <c r="G103" s="24">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="24">
+        <v>1750</v>
+      </c>
+      <c r="I103" s="27">
+        <f>F103*H103</f>
+        <v>84000</v>
+      </c>
+      <c r="J103" s="27">
+        <f>G103*H103</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="24">
+        <v>34</v>
+      </c>
+      <c r="L103" s="23"/>
+    </row>
+    <row r="104" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="24"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="23"/>
+    </row>
+    <row r="105" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="23"/>
+    </row>
+    <row r="106" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+    </row>
+    <row r="107" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="20"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+    </row>
+    <row r="108" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="22">
+        <f>SUM(D47:D107)</f>
+        <v>1050000</v>
+      </c>
+      <c r="H109" s="22">
+        <f>SUM(H47:H107)</f>
+        <v>51800</v>
+      </c>
+      <c r="I109" s="22">
+        <f>SUM(I47:I107)</f>
+        <v>854700</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="22"/>
+      <c r="H110" s="22">
+        <f>H109-J110</f>
+        <v>31800</v>
+      </c>
+      <c r="I110" s="22"/>
+      <c r="J110" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L110" s="30">
+        <f>SUM(L45:L107)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="22">
+        <f>SUM(D54:D60)</f>
+        <v>120000</v>
+      </c>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+    </row>
+    <row r="118" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="28"/>
+      <c r="C118" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J118" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7">
+        <f>44800+120000</f>
+        <v>164800</v>
+      </c>
+      <c r="D119" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E119" s="7">
+        <f>C119+D119</f>
+        <v>166800</v>
+      </c>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7">
+        <f>H110+J152</f>
+        <v>32450</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E120" s="3">
+        <f t="shared" ref="E120:E153" si="33">C120+D120</f>
+        <v>166800</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3">
+        <v>237300</v>
+      </c>
+      <c r="J120" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="7">
+        <f>44800+120000</f>
+        <v>164800</v>
+      </c>
+      <c r="D121" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E121" s="7">
+        <f t="shared" si="33"/>
+        <v>166800</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7">
+        <v>243950</v>
+      </c>
+      <c r="J121" s="7">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" si="33"/>
+        <v>166800</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3">
+        <v>249900</v>
+      </c>
+      <c r="J122" s="3">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" s="7">
+        <f>44800+120000</f>
+        <v>164800</v>
+      </c>
+      <c r="D123" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E123" s="7">
+        <f t="shared" si="33"/>
+        <v>166800</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7">
+        <v>255500</v>
+      </c>
+      <c r="J123" s="7">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D124" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" si="33"/>
+        <v>167800</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3">
+        <v>260750</v>
+      </c>
+      <c r="J124" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="7">
+        <v>164800</v>
+      </c>
+      <c r="D125" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E125" s="7">
+        <f t="shared" si="33"/>
+        <v>167800</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7">
+        <v>266350</v>
+      </c>
+      <c r="J125" s="7">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D126" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E126" s="3">
+        <f t="shared" si="33"/>
+        <v>167800</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3">
+        <v>271600</v>
+      </c>
+      <c r="J126" s="3">
+        <f>10850-10000</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="7">
+        <v>164800</v>
+      </c>
+      <c r="D127" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E127" s="7">
+        <f t="shared" si="33"/>
+        <v>167800</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7">
+        <v>283500</v>
+      </c>
+      <c r="J127" s="7">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D128" s="3">
+        <f>3000+2000+2000</f>
+        <v>7000</v>
+      </c>
+      <c r="E128" s="3">
+        <f t="shared" si="33"/>
+        <v>171800</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3">
+        <v>287000</v>
+      </c>
+      <c r="J128" s="3">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" s="7">
+        <v>164800</v>
+      </c>
+      <c r="D129" s="7">
+        <f>7000+2000</f>
+        <v>9000</v>
+      </c>
+      <c r="E129" s="7">
+        <f t="shared" si="33"/>
+        <v>173800</v>
+      </c>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7">
+        <v>291550</v>
+      </c>
+      <c r="J129" s="7">
+        <f>13900-10000</f>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D130" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E130" s="3">
+        <f t="shared" si="33"/>
+        <v>173800</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3">
+        <v>303450</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="7">
+        <v>164800</v>
+      </c>
+      <c r="D131" s="7">
+        <v>9000</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" si="33"/>
+        <v>173800</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7">
+        <v>313950</v>
+      </c>
+      <c r="J131" s="7">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D132" s="3">
+        <f>9000+2000</f>
+        <v>11000</v>
+      </c>
+      <c r="E132" s="3">
+        <f t="shared" si="33"/>
+        <v>175800</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3">
+        <v>316050</v>
+      </c>
+      <c r="J132" s="3">
+        <f>15350-10000</f>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D133" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E133" s="3">
+        <f t="shared" si="33"/>
+        <v>175800</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3">
+        <v>325500</v>
+      </c>
+      <c r="J133" s="3">
+        <f>14600-10000</f>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D134" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E134" s="3">
+        <f t="shared" si="33"/>
+        <v>175800</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3">
+        <v>333550</v>
+      </c>
+      <c r="J134" s="3">
+        <f>15250-10000</f>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D135" s="3">
+        <f>11000+2850</f>
+        <v>13850</v>
+      </c>
+      <c r="E135" s="3">
+        <f t="shared" si="33"/>
+        <v>178650</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3">
+        <v>340200</v>
+      </c>
+      <c r="J135" s="3">
+        <f>17300-10000</f>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D136" s="3">
+        <f>13850+3800+3800</f>
+        <v>21450</v>
+      </c>
+      <c r="E136" s="3">
+        <f t="shared" si="33"/>
+        <v>186250</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3">
+        <v>346500</v>
+      </c>
+      <c r="J136" s="3">
+        <f>20750-10000</f>
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D137" s="3">
+        <v>21450</v>
+      </c>
+      <c r="E137" s="3">
+        <f t="shared" si="33"/>
+        <v>186250</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3">
+        <v>354200</v>
+      </c>
+      <c r="J137" s="3">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D138" s="3">
+        <v>21450</v>
+      </c>
+      <c r="E138" s="3">
+        <f t="shared" si="33"/>
+        <v>186250</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3">
+        <v>360500</v>
+      </c>
+      <c r="J138" s="3">
+        <f>21850-20000</f>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D139" s="3">
+        <v>21450</v>
+      </c>
+      <c r="E139" s="3">
+        <f t="shared" si="33"/>
+        <v>186250</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3">
+        <v>389200</v>
+      </c>
+      <c r="J139" s="3">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D140" s="3">
+        <v>21450</v>
+      </c>
+      <c r="E140" s="3">
+        <f t="shared" si="33"/>
+        <v>186250</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3">
+        <v>391300</v>
+      </c>
+      <c r="J140" s="3">
+        <v>21350</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D141" s="3">
+        <v>21450</v>
+      </c>
+      <c r="E141" s="3">
+        <f t="shared" si="33"/>
+        <v>186250</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3">
+        <v>392000</v>
+      </c>
+      <c r="J141" s="3">
+        <f>33200-30000</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D142" s="3">
+        <v>21450</v>
+      </c>
+      <c r="E142" s="3">
+        <f t="shared" si="33"/>
+        <v>186250</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3">
+        <v>451500</v>
+      </c>
+      <c r="J142" s="3">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D143" s="3">
+        <v>21450</v>
+      </c>
+      <c r="E143" s="3">
+        <f t="shared" si="33"/>
+        <v>186250</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3">
+        <v>449050</v>
+      </c>
+      <c r="J143" s="3">
+        <f>31800-30000</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D144" s="3">
+        <f>21450+3800</f>
+        <v>25250</v>
+      </c>
+      <c r="E144" s="3">
+        <f t="shared" si="33"/>
+        <v>190050</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3">
+        <v>505400</v>
+      </c>
+      <c r="J144" s="3">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3">
+        <v>501200</v>
+      </c>
+      <c r="J145" s="3">
+        <f>36700-30000</f>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3">
+        <v>555800</v>
+      </c>
+      <c r="J146" s="3">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3">
+        <v>548450</v>
+      </c>
+      <c r="J147" s="3">
+        <f>47900-30000</f>
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3">
+        <v>601300</v>
+      </c>
+      <c r="J148" s="3">
+        <f>40950-30000</f>
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3">
+        <v>653800</v>
+      </c>
+      <c r="J149" s="3">
+        <f>35750-30000</f>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3">
+        <v>704550</v>
+      </c>
+      <c r="J150" s="3">
+        <f>32300-30000</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3">
+        <v>754950</v>
+      </c>
+      <c r="J151" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C152" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3">
+        <v>805000</v>
+      </c>
+      <c r="J152" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C153" s="3">
+        <v>164800</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3">
+        <f t="shared" si="33"/>
+        <v>164800</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3">
+        <v>854700</v>
+      </c>
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -439,6 +439,9 @@
                 <c:pt idx="9">
                   <c:v>45284</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>45291</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -476,6 +479,9 @@
                   <c:v>134880</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>159880</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>159880</c:v>
                 </c:pt>
               </c:numCache>
@@ -549,6 +555,9 @@
                 <c:pt idx="9">
                   <c:v>45284</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>45291</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -586,6 +595,9 @@
                   <c:v>190050</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>222250</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>222250</c:v>
                 </c:pt>
               </c:numCache>
@@ -659,6 +671,9 @@
                 <c:pt idx="9">
                   <c:v>45284</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>45291</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -669,7 +684,7 @@
                 <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5500</c:v>
+                  <c:v>16500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>800</c:v>
@@ -694,6 +709,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,6 +784,9 @@
                 <c:pt idx="9">
                   <c:v>45284</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>45291</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -776,7 +797,7 @@
                 <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>216750</c:v>
+                  <c:v>205750</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40400</c:v>
@@ -804,6 +825,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>216750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,11 +839,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71908352"/>
-        <c:axId val="78046720"/>
+        <c:axId val="54010240"/>
+        <c:axId val="54011776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71908352"/>
+        <c:axId val="54010240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,14 +883,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78046720"/>
+        <c:crossAx val="54011776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78046720"/>
+        <c:axId val="54011776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71908352"/>
+        <c:crossAx val="54010240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -988,7 +1012,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1039,7 +1063,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>216750</v>
+            <v>205750</v>
           </cell>
         </row>
       </sheetData>
@@ -1311,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -1325,7 +1349,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="22.5" customHeight="1">
+    <row r="2" spans="2:5" ht="22.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1333,64 +1357,68 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="22.5" customHeight="1">
+    <row r="4" spans="2:5" ht="22.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>216750</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="9" customHeight="1"/>
-    <row r="6" spans="2:3" ht="22.5" customHeight="1">
+        <v>205750</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="9" customHeight="1"/>
+    <row r="6" spans="2:5" ht="22.5" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="22.5" customHeight="1">
+      <c r="E6" s="1">
+        <f>16800+159880</f>
+        <v>176680</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>216750</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="22.5" customHeight="1">
+        <v>205750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="2:3" ht="22.5" customHeight="1">
+    <row r="9" spans="2:5" ht="22.5" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:3" ht="22.5" customHeight="1">
+    <row r="10" spans="2:5" ht="22.5" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:5">
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="2:3" ht="22.5" customHeight="1">
+    <row r="13" spans="2:5" ht="22.5" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <f>3000+2500</f>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="22.5" customHeight="1">
+        <f>6000+7000+2700+800</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="22.5" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1410,7 +1438,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1454,11 +1482,11 @@
       </c>
       <c r="E3" s="18">
         <f>FirmValue!C13</f>
-        <v>5500</v>
+        <v>16500</v>
       </c>
       <c r="F3" s="19">
         <f>FirmValue!C4</f>
-        <v>216750</v>
+        <v>205750</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -1624,11 +1652,21 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="12"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="12">
+        <v>45291</v>
+      </c>
+      <c r="C14" s="3">
+        <v>159880</v>
+      </c>
+      <c r="D14" s="7">
+        <v>222250</v>
+      </c>
+      <c r="E14" s="7">
+        <v>16800</v>
+      </c>
+      <c r="F14" s="7">
+        <v>205750</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -114,7 +114,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,20 +282,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,6 +292,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +574,7 @@
                 <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>222250</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>41200</c:v>
@@ -684,7 +690,7 @@
                 <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16500</c:v>
+                  <c:v>18650</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>800</c:v>
@@ -797,7 +803,7 @@
                 <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>205750</c:v>
+                  <c:v>211350</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40400</c:v>
@@ -839,11 +845,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54010240"/>
-        <c:axId val="54011776"/>
+        <c:axId val="53223424"/>
+        <c:axId val="53224960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54010240"/>
+        <c:axId val="53223424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,14 +889,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54011776"/>
+        <c:crossAx val="53224960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54011776"/>
+        <c:axId val="53224960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54010240"/>
+        <c:crossAx val="53223424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1012,7 +1018,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1022,16 +1028,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1063,7 +1069,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>205750</v>
+            <v>211350</v>
           </cell>
         </row>
       </sheetData>
@@ -1327,7 +1333,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1338,7 +1344,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1363,7 +1369,7 @@
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>205750</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="9" customHeight="1"/>
@@ -1385,7 +1391,7 @@
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>205750</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
@@ -1414,8 +1420,8 @@
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <f>6000+7000+2700+800</f>
-        <v>16500</v>
+        <f>5000+8100+2850+2700</f>
+        <v>18650</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="22.5" customHeight="1">
@@ -1424,7 +1430,7 @@
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>222250</v>
+        <v>230000</v>
       </c>
     </row>
   </sheetData>
@@ -1435,237 +1441,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="29" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1"/>
     <row r="2" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>35000</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <f>FirmValue!C15</f>
-        <v>222250</v>
-      </c>
-      <c r="E3" s="18">
+        <v>230000</v>
+      </c>
+      <c r="E3" s="14">
         <f>FirmValue!C13</f>
-        <v>16500</v>
-      </c>
-      <c r="F3" s="19">
+        <v>18650</v>
+      </c>
+      <c r="F3" s="15">
         <f>FirmValue!C4</f>
-        <v>205750</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>45221</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>35000</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>41200</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>800</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>40400</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="13">
+      <c r="B5" s="18">
         <v>45227</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="19">
         <v>35000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="19">
         <v>41200</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="19">
         <v>4100</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="19">
         <v>37100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="12">
+      <c r="B6" s="20">
         <v>45235</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="21">
         <v>35000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="21">
         <v>41200</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="21">
         <v>4100</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="21">
         <v>37100</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="13">
+      <c r="B7" s="18">
         <v>45242</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="19">
         <v>34880</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="19">
         <v>46100</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="19">
         <v>46100</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="12">
+      <c r="B8" s="20">
         <v>45249</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="21">
         <v>34880</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="21">
         <v>46100</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21">
         <v>46100</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="13">
+      <c r="B9" s="18">
         <v>45256</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="19">
         <v>44880</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="19">
         <v>59050</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="19">
         <v>1850</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="19">
         <v>57200</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="12">
+      <c r="B10" s="20">
         <v>45263</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="13">
+      <c r="B11" s="18">
         <v>45270</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="19">
         <v>44880</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="19">
         <f>E11+F11</f>
         <v>58500</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="19">
         <v>9100</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="19">
         <v>49400</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="12">
+      <c r="B12" s="20">
         <v>45277</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="21">
         <v>134880</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="21">
         <v>190050</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="21">
         <v>13000</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="21">
         <v>177050</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="13">
+      <c r="B13" s="18">
         <v>45284</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="19">
         <v>159880</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="19">
         <v>222250</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="19">
         <v>5500</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="19">
         <v>216750</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="12">
+      <c r="B14" s="20">
         <v>45291</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="19">
         <v>159880</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="21">
         <v>222250</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="21">
         <v>16800</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="21">
         <v>205750</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="18">
+        <v>45298</v>
+      </c>
+      <c r="C15" s="19">
+        <v>159880</v>
+      </c>
+      <c r="D15" s="19">
+        <v>230000</v>
+      </c>
+      <c r="E15" s="19">
+        <f>5000+8100+2850+2700</f>
+        <v>18650</v>
+      </c>
+      <c r="F15" s="19">
+        <v>211350</v>
       </c>
     </row>
   </sheetData>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -219,7 +219,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>236100</v>
+            <v>241700</v>
           </cell>
         </row>
       </sheetData>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>236100</v>
+        <v>241700</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="9" customHeight="1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>236100</v>
+        <v>241700</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="22.5" customHeight="1">
@@ -566,8 +566,8 @@
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <f>3000+2950</f>
-        <v>5950</v>
+        <f>5450+2100</f>
+        <v>7550</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="22.5" customHeight="1">
@@ -576,7 +576,7 @@
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>242050</v>
+        <v>249250</v>
       </c>
     </row>
   </sheetData>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -219,7 +219,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>241700</v>
+            <v>249250</v>
           </cell>
         </row>
       </sheetData>
@@ -494,7 +494,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>241700</v>
+        <v>249250</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="9" customHeight="1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>241700</v>
+        <v>249250</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="22.5" customHeight="1">
@@ -566,8 +566,8 @@
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <f>5450+2100</f>
-        <v>7550</v>
+        <f>200+200+800+5450</f>
+        <v>6650</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="22.5" customHeight="1">
@@ -576,7 +576,7 @@
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>249250</v>
+        <v>255900</v>
       </c>
     </row>
   </sheetData>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -219,7 +219,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>249250</v>
+            <v>251850</v>
           </cell>
         </row>
       </sheetData>
@@ -483,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -494,7 +494,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>249250</v>
+        <v>251850</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="9" customHeight="1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>249250</v>
+        <v>251850</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="22.5" customHeight="1">
@@ -576,7 +576,7 @@
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>255900</v>
+        <v>258500</v>
       </c>
     </row>
   </sheetData>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -219,7 +219,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>251850</v>
+            <v>261650</v>
           </cell>
         </row>
       </sheetData>
@@ -483,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -494,7 +494,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>251850</v>
+        <v>261650</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="9" customHeight="1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>251850</v>
+        <v>261650</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="22.5" customHeight="1">
@@ -566,8 +566,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <f>200+200+800+5450</f>
-        <v>6650</v>
+        <v>-8150</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="22.5" customHeight="1">
@@ -576,7 +575,7 @@
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>258500</v>
+        <v>253500</v>
       </c>
     </row>
   </sheetData>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>LoanOfficer-A</t>
   </si>
@@ -47,6 +47,42 @@
   </si>
   <si>
     <t>Total Value</t>
+  </si>
+  <si>
+    <t>Monalisha</t>
+  </si>
+  <si>
+    <t>ranjita</t>
+  </si>
+  <si>
+    <t>Priyadarsini</t>
+  </si>
+  <si>
+    <t>Sunanda</t>
+  </si>
+  <si>
+    <t>kamala</t>
+  </si>
+  <si>
+    <t>rambhabati</t>
+  </si>
+  <si>
+    <t>Thasana</t>
+  </si>
+  <si>
+    <t>tombi</t>
+  </si>
+  <si>
+    <t>sunanda</t>
+  </si>
+  <si>
+    <t>manisana</t>
+  </si>
+  <si>
+    <t>thasana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -219,7 +255,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>261650</v>
+            <v>280050</v>
           </cell>
         </row>
       </sheetData>
@@ -483,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -505,7 +541,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="22.5" customHeight="1">
+    <row r="2" spans="2:10" ht="22.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -513,17 +549,17 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="22.5" customHeight="1">
+    <row r="4" spans="2:10" ht="22.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>261650</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="9" customHeight="1"/>
-    <row r="6" spans="2:3" ht="22.5" customHeight="1">
+        <v>280050</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="9" customHeight="1"/>
+    <row r="6" spans="2:10" ht="22.5" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -531,51 +567,159 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="22.5" customHeight="1">
+    <row r="7" spans="2:10" ht="22.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>261650</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="22.5" customHeight="1">
+        <v>280050</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="22.5" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="2:3" ht="22.5" customHeight="1">
+      <c r="H8" s="1">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="22.5" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="22.5" customHeight="1">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="22.5" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1950</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="C11" s="4"/>
-    </row>
-    <row r="13" spans="2:3" ht="22.5" customHeight="1">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="I11" s="1">
+        <f>SUM(H9:H12)</f>
+        <v>-37050</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-17200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="22.5" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
         <v>-8150</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="22.5" customHeight="1">
+      <c r="J13" s="1">
+        <f>H8+I11+I18</f>
+        <v>-22600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="J14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="22.5" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>253500</v>
+        <v>271900</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1">
+        <v>350</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(H15:H22)</f>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9">
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="FirmValue" sheetId="14" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -88,12 +88,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +186,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -196,25 +196,25 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="2023"/>
@@ -255,7 +255,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>280050</v>
+            <v>289300</v>
           </cell>
         </row>
       </sheetData>
@@ -519,21 +519,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
@@ -541,7 +541,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="22.5" customHeight="1">
+    <row r="2" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -549,17 +549,17 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="22.5" customHeight="1">
+    <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>280050</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="9" customHeight="1"/>
-    <row r="6" spans="2:10" ht="22.5" customHeight="1">
+        <v>289300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -567,16 +567,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="22.5" customHeight="1">
+    <row r="7" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>280050</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="22.5" customHeight="1">
+        <v>289300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -585,7 +585,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="22.5" customHeight="1">
+    <row r="9" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -597,7 +597,7 @@
         <v>-7900</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="22.5" customHeight="1">
+    <row r="10" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -609,7 +609,7 @@
         <v>-1950</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -622,7 +622,7 @@
         <v>-37050</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
@@ -630,30 +630,30 @@
         <v>-17200</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="22.5" customHeight="1">
+    <row r="13" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>-8150</v>
+        <v>-15450</v>
       </c>
       <c r="J13" s="1">
         <f>H8+I11+I18</f>
         <v>-22600</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="22.5" customHeight="1">
+    <row r="15" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>271900</v>
+        <v>273850</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -662,7 +662,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
@@ -670,7 +670,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="7:9">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
@@ -678,7 +678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="7:9">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
@@ -690,7 +690,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="19" spans="7:9">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
         <v>19</v>
       </c>
@@ -706,7 +706,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
@@ -714,7 +714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="FirmValue" sheetId="14" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -88,12 +88,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +186,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -196,25 +196,25 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="2023"/>
@@ -255,7 +255,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>289300</v>
+            <v>275850</v>
           </cell>
         </row>
       </sheetData>
@@ -519,21 +519,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
@@ -541,7 +541,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="22.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -549,17 +549,17 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="22.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>289300</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275850</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="9" customHeight="1"/>
+    <row r="6" spans="2:10" ht="22.5" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -567,16 +567,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="22.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>289300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275850</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="22.5" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -585,7 +585,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="22.5" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -597,7 +597,7 @@
         <v>-7900</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="22.5" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -609,7 +609,7 @@
         <v>-1950</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="C11" s="4"/>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -622,7 +622,7 @@
         <v>-37050</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
@@ -630,24 +630,24 @@
         <v>-17200</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="22.5" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>-15450</v>
+        <v>-2000</v>
       </c>
       <c r="J13" s="1">
         <f>H8+I11+I18</f>
         <v>-22600</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="22.5" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
@@ -662,7 +662,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
@@ -670,7 +670,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9">
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
@@ -678,7 +678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:9">
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
@@ -690,7 +690,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:9">
       <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:9">
       <c r="G20" s="1" t="s">
         <v>19</v>
       </c>
@@ -706,7 +706,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:9">
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
@@ -714,7 +714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:9">
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -255,7 +255,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>275850</v>
+            <v>282900</v>
           </cell>
         </row>
       </sheetData>
@@ -519,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,7 +530,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>275850</v>
+        <v>282900</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="9" customHeight="1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>275850</v>
+        <v>282900</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="22.5" customHeight="1">
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>-2000</v>
+        <v>-3100</v>
       </c>
       <c r="J13" s="1">
         <f>H8+I11+I18</f>
@@ -653,7 +653,7 @@
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>273850</v>
+        <v>279800</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>

--- a/firmValue.xlsx
+++ b/firmValue.xlsx
@@ -255,7 +255,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="L2">
-            <v>282900</v>
+            <v>268200</v>
           </cell>
         </row>
       </sheetData>
@@ -519,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,7 +555,7 @@
       </c>
       <c r="C4" s="3">
         <f>SUM(C7:C10)</f>
-        <v>282900</v>
+        <v>268200</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="9" customHeight="1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="C7" s="3">
         <f>'[1]2023'!$L$2</f>
-        <v>282900</v>
+        <v>268200</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="22.5" customHeight="1">
@@ -653,7 +653,7 @@
       </c>
       <c r="C15" s="9">
         <f>C4+C13</f>
-        <v>279800</v>
+        <v>265100</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
